--- a/artfynd/A 6180-2026 artfynd.xlsx
+++ b/artfynd/A 6180-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,6 +912,867 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131054129</v>
+      </c>
+      <c r="B4" t="n">
+        <v>92267</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hermanssonia centrifuga</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(P. Karst.) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Rävmossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>660317</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6661560</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Rasbokil</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131054159</v>
+      </c>
+      <c r="B5" t="n">
+        <v>92267</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hermanssonia centrifuga</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(P. Karst.) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Rävmossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>660304</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6661793</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Rasbokil</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131054152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Rävmossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>660473</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6661613</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Rasbokil</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>10:53</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>10:53</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>sumpskogsområde dikat</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131054148</v>
+      </c>
+      <c r="B7" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Rävmossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>660338</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6661656</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Rasbokil</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131054160</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Rävmossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>660306</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6661795</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Rasbokil</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131054161</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Rävmossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>660212</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6661786</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Rasbokil</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131054128</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4779</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>102306</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Granbarkgnagare</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Microbregma emarginatum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Duftschmid, 1825)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Rävmossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>660278</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6661596</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Rasbokil</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131054149</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Rävmossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>660399</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6661680</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Rasbokil</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Tomas Falk</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 6180-2026 artfynd.xlsx
+++ b/artfynd/A 6180-2026 artfynd.xlsx
@@ -917,7 +917,7 @@
         <v>131054129</v>
       </c>
       <c r="B4" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>131054159</v>
       </c>
       <c r="B5" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>131054152</v>
       </c>
       <c r="B6" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>131054160</v>
       </c>
       <c r="B8" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>131054149</v>
       </c>
       <c r="B11" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 6180-2026 artfynd.xlsx
+++ b/artfynd/A 6180-2026 artfynd.xlsx
@@ -917,7 +917,7 @@
         <v>131054129</v>
       </c>
       <c r="B4" t="n">
-        <v>92268</v>
+        <v>92269</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>131054159</v>
       </c>
       <c r="B5" t="n">
-        <v>92268</v>
+        <v>92269</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>131054152</v>
       </c>
       <c r="B6" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>131054160</v>
       </c>
       <c r="B8" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>131054149</v>
       </c>
       <c r="B11" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 6180-2026 artfynd.xlsx
+++ b/artfynd/A 6180-2026 artfynd.xlsx
@@ -917,7 +917,7 @@
         <v>131054129</v>
       </c>
       <c r="B4" t="n">
-        <v>92269</v>
+        <v>92272</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>131054159</v>
       </c>
       <c r="B5" t="n">
-        <v>92269</v>
+        <v>92272</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>131054152</v>
       </c>
       <c r="B6" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>131054160</v>
       </c>
       <c r="B8" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>131054149</v>
       </c>
       <c r="B11" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 6180-2026 artfynd.xlsx
+++ b/artfynd/A 6180-2026 artfynd.xlsx
@@ -917,7 +917,7 @@
         <v>131054129</v>
       </c>
       <c r="B4" t="n">
-        <v>92272</v>
+        <v>92273</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>131054159</v>
       </c>
       <c r="B5" t="n">
-        <v>92272</v>
+        <v>92273</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>131054152</v>
       </c>
       <c r="B6" t="n">
-        <v>91813</v>
+        <v>91814</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>131054160</v>
       </c>
       <c r="B8" t="n">
-        <v>91813</v>
+        <v>91814</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>131054149</v>
       </c>
       <c r="B11" t="n">
-        <v>91813</v>
+        <v>91814</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
